--- a/saeles dax.xlsx
+++ b/saeles dax.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\demo\powerbi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\demo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7D49815-ED23-4942-9B38-8312699CD163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30946692-7151-46A5-8647-DC15A7AE4641}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" xr2:uid="{BB7E7AD9-73B3-412D-95E9-67305FEE9EC7}"/>
   </bookViews>
